--- a/kep8Groupoutput.xlsx
+++ b/kep8Groupoutput.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>power eigenvalues</t>
+          <t>power eigenvalue</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">

--- a/kep8Groupoutput.xlsx
+++ b/kep8Groupoutput.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>power eigenvalue</t>
+          <t>power eigenvalues</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
